--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3622.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3622.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.256973561911555</v>
+        <v>1.757810711860657</v>
       </c>
       <c r="B1">
-        <v>2.191434312835532</v>
+        <v>2.686997413635254</v>
       </c>
       <c r="C1">
-        <v>2.859381365497129</v>
+        <v>3.338043928146362</v>
       </c>
       <c r="D1">
-        <v>3.245320736827701</v>
+        <v>1.27691650390625</v>
       </c>
       <c r="E1">
-        <v>1.390710452108626</v>
+        <v>0.8488638997077942</v>
       </c>
     </row>
   </sheetData>
